--- a/data/trans_dic/P31_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>84,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>96,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>96,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90,01%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 97,14</t>
+          <t>34,95; 95,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,76; 97,76</t>
+          <t>86,05; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,03; 98,4</t>
+          <t>85,08; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,24; 99,15</t>
+          <t>82,92; 99,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,92; 99,18</t>
+          <t>83,92; 98,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,45; 99,37</t>
+          <t>89,24; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,89; 97,0</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,1; 97,88</t>
+          <t>72,86; 95,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,71; 98,41</t>
+          <t>58,51; 95,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>91,74; 99,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>91,4; 99,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80,89; 95,5</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>80,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>82,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>87,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>85,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73,8%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,9; 90,56</t>
+          <t>77,12; 89,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,81; 86,18</t>
+          <t>72,48; 86,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,07; 87,1</t>
+          <t>72,24; 87,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,39; 92,18</t>
+          <t>56,93; 74,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,54; 94,95</t>
+          <t>84,63; 94,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,01; 91,9</t>
+          <t>85,01; 94,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,06; 90,59</t>
+          <t>82,02; 92,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,68; 89,58</t>
+          <t>75,39; 88,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,43; 88,38</t>
+          <t>83,28; 90,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81,09; 89,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78,41; 87,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68,21; 78,5</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>65,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>78,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>75,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74,89%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>74,1%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,27; 73,29</t>
+          <t>56,33; 74,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,65; 80,94</t>
+          <t>67,15; 84,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,56; 78,5</t>
+          <t>61,26; 78,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,75; 85,73</t>
+          <t>60,68; 77,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,43; 90,81</t>
+          <t>77,06; 89,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,82; 86,73</t>
+          <t>77,09; 89,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,35; 78,6</t>
+          <t>71,77; 85,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76,69; 85,15</t>
+          <t>70,95; 84,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,74; 81,12</t>
+          <t>69,79; 81,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75,11; 85,91</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68,76; 79,85</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68,39; 79,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 83,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,34; 84,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,0; 84,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 90,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,92; 93,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,66; 90,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,28; 86,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,0; 88,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,25; 87,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79,2%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>82,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67,04; 81,13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75,87; 85,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73,7; 83,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>65,51; 77,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84,81; 91,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84,73; 91,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81,17; 88,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77,81; 86,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78,09; 85,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82,07; 88,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>78,86; 85,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>73,34; 80,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física moderada &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94082</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>94795</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>109355</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>162417</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>134212</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>102004</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>118557</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>180634</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>228293</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>196798</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>227911</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>343052</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45050; 122524</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85265; 99093</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97101; 114134</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>144420; 173296</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>119568; 140195</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>92972; 104183</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>109914; 122390</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>150767; 196991</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>158760; 258343</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>186493; 201491</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>216183; 234260</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>308272; 363971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>360408</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>296850</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>321497</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>328389</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>419404</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>331422</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>322639</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>389062</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>779812</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>628271</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>644135</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>717452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>329121; 383993</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>267647; 320226</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>288585; 347652</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>286024; 372434</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>393069; 438096</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>310277; 345258</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>302870; 340047</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>354120; 415925</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>742191; 809837</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>595411; 656737</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>602750; 675146</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>663091; 763092</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>219434</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>219818</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>194075</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>243270</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>354459</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>279275</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>255914</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>280532</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>573893</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>499094</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>449989</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>523802</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>187516; 247624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>189605; 239529</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>168699; 216014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>211294; 269996</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>326277; 377115</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>257068; 297474</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>233619; 276886</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>254450; 301426</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>527830; 614519</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>462575; 529083</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>413202; 479808</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>483444; 561774</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>527.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>673924</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>611463</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>624925</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>734077</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>908075</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>712701</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>697110</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>850228</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1581999</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1324163</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1322036</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1584306</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>595699; 720879</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>569585; 645598</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>581491; 661583</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>671333; 791217</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>873827; 938200</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>680052; 737709</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>663263; 723070</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>805602; 894163</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1498519; 1643345</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1274919; 1368064</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1266603; 1370616</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1510807; 1659730</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
